--- a/test_xlsx_FACTURE.xlsx
+++ b/test_xlsx_FACTURE.xlsx
@@ -107,7 +107,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -180,58 +180,73 @@
       </c>
       <c r="M1" s="0" t="inlineStr">
         <is>
+          <t>Telephone du client2</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
           <t>Telephone portable du client</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
-        <is>
-          <t>Vendeur	Parc</t>
-        </is>
-      </c>
       <c r="O1" s="0" t="inlineStr">
         <is>
-          <t>Destination	Source du client</t>
+          <t>Vendeur</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>Parc</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>Destination</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>Source du client</t>
         </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2021-06-10 15:34:18</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>FZ-516-QS</t>
+          <t>FR792JW</t>
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>10</v>
+        <v>60657</v>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>VO90649</t>
+          <t>VO105339</t>
         </is>
       </c>
       <c r="E2" s="0" t="n">
-        <v>18204.00</v>
+        <v>9916.67</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>STAR TERRE</t>
+          <t>Lionel COLLET</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>33-41 BOULEVARD LUCIEN SAMPAIX</t>
+          <t>1 Lotissement Le Haut Des Vignes</t>
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>69190</v>
+        <v>91140</v>
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>ST FONS</t>
+          <t>VILLEJUST</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
@@ -239,29 +254,1264 @@
           <t>FR</t>
         </is>
       </c>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0" t="inlineStr">
-        <is>
-          <t>04 82 75 13 20</t>
-        </is>
-      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>lionelcollet91@gmail.com</t>
+        </is>
+      </c>
+      <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0" t="inlineStr">
         <is>
-          <t>GUILLAUME HONNERT </t>
+          <t>0624804813</t>
         </is>
       </c>
       <c r="O2" s="0" t="inlineStr">
         <is>
-          <t>NEGOCE VENDU</t>
+          <t>MOSSO MAMET </t>
         </is>
       </c>
       <c r="P2" s="0" t="inlineStr">
         <is>
+          <t>CVO MASSY</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="inlineStr">
+        <is>
+          <t>La centrale</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>EV663KE</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>84258</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>VO105340</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>9900.00</v>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>FERNANDO JOSE DE FREITAS</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>8 rue babeuf</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>93170</v>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>Bagnolet</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>ffreitas313@gmail.com</t>
+        </is>
+      </c>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>0783197603</t>
+        </is>
+      </c>
+      <c r="O3" s="0" t="inlineStr">
+        <is>
+          <t>Yassine AZAARI </t>
+        </is>
+      </c>
+      <c r="P3" s="0" t="inlineStr">
+        <is>
+          <t>CVO MASSY</t>
+        </is>
+      </c>
+      <c r="Q3" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R3" s="0" t="inlineStr">
+        <is>
+          <t>La centrale</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>FG800QQ</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>117418</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>VO105341</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>victoire delange</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>9 rue alexandre peau</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>61400</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>mortagne au perche</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>victoire.delange61@gmail.com</t>
+        </is>
+      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>0633408077</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>Maxime GUEMON </t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr">
+        <is>
+          <t>CVO CHARTRES</t>
+        </is>
+      </c>
+      <c r="Q4" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R4" s="0" t="inlineStr">
+        <is>
+          <t>Le boncoin</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>FH568QQ</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>82772</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>VO105342</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>13750.00</v>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>SONIA HAMIZI</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>7 RUE CLEMENT BREVARD</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>77400</v>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>DAMPMART</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>sonia-hamizi@hotmail.fr</t>
+        </is>
+      </c>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>0766574009</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>Yassine AZAARI </t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
+        <is>
+          <t>CVO MASSY</t>
+        </is>
+      </c>
+      <c r="Q5" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R5" s="0" t="inlineStr">
+        <is>
+          <t>LE BON COIN</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>FW607MV</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>66849</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>VO105343</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10666.67</v>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>ENZO NOEL</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>9 Place des combattants d'Afn</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>10400</v>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>Nogent sur seine</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>enzo280105@gmail.com</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>06.65.77.66.74</t>
+        </is>
+      </c>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>06.25.28.80.10</t>
+        </is>
+      </c>
+      <c r="O6" s="0" t="inlineStr">
+        <is>
+          <t>ABDELKADER OUDINA </t>
+        </is>
+      </c>
+      <c r="P6" s="0" t="inlineStr">
+        <is>
+          <t>CVO TROYES</t>
+        </is>
+      </c>
+      <c r="Q6" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R6" s="0" t="inlineStr">
+        <is>
+          <t>PASSAGE</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>ER169RA</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>51781</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>VO105344</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>8666.67</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>DUNCAN LAMOUCHE</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>2 Rue de la Planchotte</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>77320</v>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>JOUY SUR MORIN</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>duncanlamouche@gmail.com</t>
+        </is>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>07.82.37.91.68</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t>ABDELKADER OUDINA </t>
+        </is>
+      </c>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t>CVO TROYES</t>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R7" s="0" t="inlineStr">
+        <is>
+          <t>La centrale</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>GC952JE</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>59862</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>VO105345</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>13250.00</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>AURELIE COLLET</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>6 BIS ROUTE DE BRIGNAIS</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>TASSIN LA</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>69160</v>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>aurelie.grd@gmail.com</t>
+        </is>
+      </c>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>07.62.32.01.05</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>YOHAN DUPONT </t>
+        </is>
+      </c>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t>CVO CLERMONT</t>
+        </is>
+      </c>
+      <c r="Q8" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R8" s="0" t="inlineStr">
+        <is>
+          <t>leboncoin</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>GB141SK</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>83093</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>VO105346</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>14083.33</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Infinita Vaidade,  Lda.</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Rua Óscar da Silva</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>1092 4450-</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>Matosinhos</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>mgmotors.leca@gmail.com</t>
+        </is>
+      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>00351 918604020</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="inlineStr">
+        <is>
+          <t>Patrice QUIET </t>
+        </is>
+      </c>
+      <c r="P9" s="0" t="inlineStr">
+        <is>
+          <t>CVO CHARTRES</t>
+        </is>
+      </c>
+      <c r="Q9" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R9" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>FS491NJ</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>61682</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>VO105347</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>8666.67</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>xxx sudarsanan</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>149 boulevard du président kennedy</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>93420</v>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>villepinte</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>tsudarsanan@yahoo.fr</t>
+        </is>
+      </c>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>0768538811</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>Noémie DELABRIERE </t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="inlineStr">
+        <is>
+          <t>CVO RAMBOUILLET</t>
+        </is>
+      </c>
+      <c r="Q10" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R10" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>EM663PB</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>61084</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>VO105349</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>14916.67</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>ANVIG</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>22 Rue De L'Eglise</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>94500</v>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>CHAMPIGNY SUR MARNE</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>vkumar@anvig.fr</t>
+        </is>
+      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>0781973433</t>
+        </is>
+      </c>
+      <c r="O11" s="0" t="inlineStr">
+        <is>
+          <t>MOSSO MAMET </t>
+        </is>
+      </c>
+      <c r="P11" s="0" t="inlineStr">
+        <is>
+          <t>CVO MASSY</t>
+        </is>
+      </c>
+      <c r="Q11" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R11" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>FQ767PC</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>49317</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>VO105350</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>9083.33</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>loëlia pio</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>96 impasse des mesesanges</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>30130</v>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>saint paulet de caissons</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>david.pio@bbox.fr</t>
+        </is>
+      </c>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>0675705536</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>Noémie DELABRIERE </t>
+        </is>
+      </c>
+      <c r="P12" s="0" t="inlineStr">
+        <is>
+          <t>CVO RAMBOUILLET</t>
+        </is>
+      </c>
+      <c r="Q12" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R12" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>GA826LC</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>60491</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>VO105351</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>14000.00</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>ANDREA CHAUVET</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>4 montée des religieuses</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>63210</v>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>sain-bel</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>chauvetandrea0@gmail.com</t>
+        </is>
+      </c>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>06.42.00.80.10</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="inlineStr">
+        <is>
+          <t>ROMAIN DUBREUIL </t>
+        </is>
+      </c>
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t>CVO CLERMONT</t>
+        </is>
+      </c>
+      <c r="Q13" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R13" s="0" t="inlineStr">
+        <is>
+          <t>PASSAGE</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>EZ646ZW</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>75275</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>VO105352</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10750.00</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>MARTIN SAUTIVET</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>6B Rue de l'Ouest</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>10300</v>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>Sainte Savine</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>martinsautivet@gmail.com</t>
+        </is>
+      </c>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>06.84.47.82.86</t>
+        </is>
+      </c>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>ABDELKADER OUDINA </t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t>CVO TROYES</t>
+        </is>
+      </c>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t>VENTE PARTICULIER</t>
+        </is>
+      </c>
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t>La centrale</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>FS211WM</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>105450</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>VO105354</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>8500.00</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>carrosserie sip</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>19 allee des peupliers</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>63370</v>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>lempdes</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>sipgarage@live.fr</t>
+        </is>
+      </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>0672842845</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>Patrice QUIET </t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>CVO CHARTRES</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
           <t>VENTE MARCHAND</t>
         </is>
       </c>
-      <c r="Q2" s="0"/>
+      <c r="R15" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>GD777JD</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>74268</v>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>VO105353</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>8500.00</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>carrosserie sip</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>19 allee des peupliers</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>63370</v>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>lempdes</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>sipgarage@live.fr</t>
+        </is>
+      </c>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>0672842845</t>
+        </is>
+      </c>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>Patrice QUIET </t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr">
+        <is>
+          <t>CVO CHARTRES</t>
+        </is>
+      </c>
+      <c r="Q16" s="0" t="inlineStr">
+        <is>
+          <t>VENTE MARCHAND</t>
+        </is>
+      </c>
+      <c r="R16" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>FR248VF</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>55258</v>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>VO105355</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>11250.00</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>SARL VD AUTO</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>606 AVENUE DE L'OCEAN</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>TERNANT</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>marc.fevrier17@laposte.net</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>05.46.26.81.22</t>
+        </is>
+      </c>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>06.98.03.44.00</t>
+        </is>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>MOSSO MAMET </t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>CVO MASSY</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>VENTE MARCHAND</t>
+        </is>
+      </c>
+      <c r="R17" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>EZ114GZ</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>36102</v>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>VO105356</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8666.67</v>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>agence martinez</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>7 route de toulouse</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>31410</v>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>montaut</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>renaultmartinez.commerce@gmail.com</t>
+        </is>
+      </c>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>0561973587</t>
+        </is>
+      </c>
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t>ROMAIN DUBREUIL </t>
+        </is>
+      </c>
+      <c r="P18" s="0" t="inlineStr">
+        <is>
+          <t>CVO CLERMONT</t>
+        </is>
+      </c>
+      <c r="Q18" s="0" t="inlineStr">
+        <is>
+          <t>VENTE MARCHAND</t>
+        </is>
+      </c>
+      <c r="R18" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
